--- a/biology/Botanique/Justicia_spicigera/Justicia_spicigera.xlsx
+++ b/biology/Botanique/Justicia_spicigera/Justicia_spicigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justicia spicigera (chèvrefeuille mexicain, buisson pétard, moyotle, moyotli, mohintli, muicle, trompetilla, yaxan, ou ych-kaan en maya) est un arbuste à feuilles persistantes et à fleurs tubulaires orange de la famille des Acanthacées originaire d'Amérique centrale et du Mexique. L'espèce est originaire du Belize, du Costa Rica, du Salvador, du Guatemala, du Honduras, du Mexique et du Nicaragua. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -545,7 +559,9 @@
           <t>Phytochimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles et les fleurs contiennent divers produits phytochimiques, notamment des hydrates de carbone, des pectines, des flavonoïdes, des tanins, des huiles essentielles et des minéraux.
 </t>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 On peut faire du thé en faisant bouillir les feuilles dans de l'eau. Lorsque les feuilles bouillent, elles colorent l'eau en bleu profond ou en indigo, ce qui explique pourquoi la plante a également été utilisée traditionnellement pour fabriquer des teintures.  Certaines parties de la plante sont utilisées comme médicament traditionnel pour le traitement de diverses affections, mais aussi comme agent d'éclaircissement dans la lessive.
